--- a/yieldFiles/A1/a1_det4.xlsx
+++ b/yieldFiles/A1/a1_det4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C717"/>
+  <dimension ref="A1:C858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2341,10 +2341,10 @@
         <v>2.48392</v>
       </c>
       <c r="B180" t="n">
-        <v>8.6214033e-13</v>
+        <v>1.78067106e-12</v>
       </c>
       <c r="C180" t="n">
-        <v>1.248111792e-14</v>
+        <v>1.561988448e-14</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>2.48392</v>
       </c>
       <c r="B181" t="n">
-        <v>1.78067106e-12</v>
+        <v>8.6214033e-13</v>
       </c>
       <c r="C181" t="n">
-        <v>1.561988448e-14</v>
+        <v>1.248111792e-14</v>
       </c>
     </row>
     <row r="182">
@@ -2385,10 +2385,10 @@
         <v>2.48496</v>
       </c>
       <c r="B184" t="n">
-        <v>8.739919260000001e-13</v>
+        <v>4.47284808e-13</v>
       </c>
       <c r="C184" t="n">
-        <v>1.097440488e-14</v>
+        <v>7.176879900000001e-15</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>2.48496</v>
       </c>
       <c r="B185" t="n">
-        <v>4.47284808e-13</v>
+        <v>8.739919260000001e-13</v>
       </c>
       <c r="C185" t="n">
-        <v>7.176879900000001e-15</v>
+        <v>1.097440488e-14</v>
       </c>
     </row>
     <row r="186">
@@ -3617,10 +3617,10 @@
         <v>2.71393</v>
       </c>
       <c r="B296" t="n">
-        <v>2.2897386e-13</v>
+        <v>2.38968738e-13</v>
       </c>
       <c r="C296" t="n">
-        <v>8.45285688e-15</v>
+        <v>6.58569384e-15</v>
       </c>
     </row>
     <row r="297">
@@ -3628,10 +3628,10 @@
         <v>2.71393</v>
       </c>
       <c r="B297" t="n">
-        <v>2.38968738e-13</v>
+        <v>2.2897386e-13</v>
       </c>
       <c r="C297" t="n">
-        <v>6.58569384e-15</v>
+        <v>8.45285688e-15</v>
       </c>
     </row>
     <row r="298">
@@ -5583,2675 +5583,4226 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B475" t="n">
-        <v>1.60522002e-13</v>
+        <v>2.388854340000001e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>7.12797084e-15</v>
+        <v>7.1039088e-15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B476" t="n">
-        <v>1.433378286e-13</v>
+        <v>1.60522002e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>9.242162279999999e-15</v>
+        <v>7.12797084e-15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B477" t="n">
-        <v>2.873154959999999e-13</v>
+        <v>1.433378286e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>7.481868660000001e-15</v>
+        <v>9.242162279999999e-15</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B478" t="n">
-        <v>1.95049908e-13</v>
+        <v>3.80660832e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>8.629557480000001e-15</v>
+        <v>1.7206281e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B479" t="n">
-        <v>2.79835758e-13</v>
+        <v>2.873154959999999e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>9.560719979999999e-15</v>
+        <v>7.481868660000001e-15</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B480" t="n">
-        <v>3.84222078e-13</v>
+        <v>1.95049908e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>1.136048688e-14</v>
+        <v>8.629557480000001e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B481" t="n">
-        <v>3.19368312e-13</v>
+        <v>2.79835758e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.14236217e-14</v>
+        <v>9.560719979999999e-15</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B482" t="n">
-        <v>3.37871412e-13</v>
+        <v>3.84222078e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>1.084916052e-14</v>
+        <v>1.136048688e-14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B483" t="n">
-        <v>3.67929738e-13</v>
+        <v>3.7671831e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>1.26489915e-14</v>
+        <v>1.60771914e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B484" t="n">
-        <v>3.21955542e-13</v>
+        <v>3.19368312e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>1.36547271e-14</v>
+        <v>1.14236217e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B485" t="n">
-        <v>3.5522748e-13</v>
+        <v>3.37871412e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>1.091873538e-14</v>
+        <v>1.084916052e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B486" t="n">
-        <v>3.3199047e-13</v>
+        <v>3.67929738e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>1.268378694e-14</v>
+        <v>1.26489915e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B487" t="n">
-        <v>3.37337946e-13</v>
+        <v>3.21955542e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>1.260735552e-14</v>
+        <v>1.36547271e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B488" t="n">
-        <v>2.2435209e-13</v>
+        <v>3.08620494e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>8.679652019999999e-15</v>
+        <v>2.34403038e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B489" t="n">
-        <v>2.6662887e-13</v>
+        <v>3.5522748e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>1.381089006e-14</v>
+        <v>1.091873538e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B490" t="n">
-        <v>2.16537534e-13</v>
+        <v>3.3199047e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>1.12632615e-14</v>
+        <v>1.268378694e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B491" t="n">
-        <v>1.522942902e-13</v>
+        <v>3.37337946e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>5.24547666e-15</v>
+        <v>1.260735552e-14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B492" t="n">
-        <v>1.83646872e-13</v>
+        <v>2.2435209e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>4.13541882e-15</v>
+        <v>8.679652019999999e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B493" t="n">
-        <v>1.426367934e-13</v>
+        <v>2.6662887e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>5.5082367e-15</v>
+        <v>1.381089006e-14</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B494" t="n">
-        <v>2.4858234e-13</v>
+        <v>2.16153054e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>8.863097039999999e-15</v>
+        <v>1.241650926e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.8748</v>
       </c>
       <c r="B495" t="n">
-        <v>3.16880406e-13</v>
+        <v>1.85306544e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>1.147906692e-14</v>
+        <v>1.9630107e-14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B496" t="n">
-        <v>2.67332148e-13</v>
+        <v>2.16537534e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>7.273993140000001e-15</v>
+        <v>1.12632615e-14</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87584</v>
       </c>
       <c r="B497" t="n">
-        <v>2.09647332e-13</v>
+        <v>1.522942902e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>6.00075558e-15</v>
+        <v>5.24547666e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87591</v>
       </c>
       <c r="B498" t="n">
-        <v>8.948067119999999e-14</v>
+        <v>2.07021654e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>7.578965880000001e-15</v>
+        <v>1.570602402e-14</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B499" t="n">
-        <v>6.78756186e-14</v>
+        <v>1.83646872e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>4.74020586e-15</v>
+        <v>4.13541882e-15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87685</v>
       </c>
       <c r="B500" t="n">
-        <v>1.81572282e-13</v>
+        <v>2.21878602e-13</v>
       </c>
       <c r="C500" t="n">
-        <v>6.61760568e-15</v>
+        <v>1.70595378e-14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87699</v>
       </c>
       <c r="B501" t="n">
-        <v>3.24928854e-13</v>
+        <v>1.426367934e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>9.87932574e-15</v>
+        <v>5.5082367e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87795</v>
       </c>
       <c r="B502" t="n">
-        <v>1.726155e-12</v>
+        <v>2.4858234e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>3.8266974e-14</v>
+        <v>8.863097039999999e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87802</v>
       </c>
       <c r="B503" t="n">
-        <v>2.73083328e-12</v>
+        <v>3.81285612e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>3.75117912e-14</v>
+        <v>1.11828411e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B504" t="n">
-        <v>2.48595156e-12</v>
+        <v>1.67431428e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>2.53578978e-14</v>
+        <v>1.149888366e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B505" t="n">
-        <v>1.335183696e-12</v>
+        <v>2.67332148e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>3.3541875e-14</v>
+        <v>7.273993140000001e-15</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87894</v>
       </c>
       <c r="B506" t="n">
-        <v>2.60969004e-12</v>
+        <v>3.16880406e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>3.56222322e-14</v>
+        <v>1.147906692e-14</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.87999</v>
       </c>
       <c r="B507" t="n">
-        <v>1.59033744e-12</v>
+        <v>2.09647332e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>3.95492148e-14</v>
+        <v>6.00075558e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88082</v>
       </c>
       <c r="B508" t="n">
-        <v>6.4767258e-13</v>
+        <v>8.948067119999999e-14</v>
       </c>
       <c r="C508" t="n">
-        <v>1.67075784e-14</v>
+        <v>7.578965880000001e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88098</v>
       </c>
       <c r="B509" t="n">
-        <v>4.06898388e-13</v>
+        <v>1.512126198e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>8.19136242e-15</v>
+        <v>1.301900544e-14</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.88879</v>
       </c>
       <c r="B510" t="n">
-        <v>3.17739078e-13</v>
+        <v>6.78756186e-14</v>
       </c>
       <c r="C510" t="n">
-        <v>9.348150599999999e-15</v>
+        <v>4.74020586e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90444</v>
       </c>
       <c r="B511" t="n">
-        <v>2.3529375e-13</v>
+        <v>1.81572282e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>5.98750704e-15</v>
+        <v>6.61760568e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90481</v>
       </c>
       <c r="B512" t="n">
-        <v>1.84816332e-13</v>
+        <v>3.24928854e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>5.44564656e-15</v>
+        <v>9.87932574e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90576</v>
       </c>
       <c r="B513" t="n">
-        <v>1.64696814e-13</v>
+        <v>1.726155e-12</v>
       </c>
       <c r="C513" t="n">
-        <v>4.88869524e-15</v>
+        <v>3.8266974e-14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B514" t="n">
-        <v>1.322455806e-13</v>
+        <v>2.73083328e-12</v>
       </c>
       <c r="C514" t="n">
-        <v>4.56163092e-15</v>
+        <v>3.75117912e-14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90595</v>
       </c>
       <c r="B515" t="n">
-        <v>1.068010146e-13</v>
+        <v>2.48595156e-12</v>
       </c>
       <c r="C515" t="n">
-        <v>3.83249664e-15</v>
+        <v>2.53578978e-14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90644</v>
       </c>
       <c r="B516" t="n">
-        <v>8.487059580000001e-14</v>
+        <v>1.335183696e-12</v>
       </c>
       <c r="C516" t="n">
-        <v>4.06734984e-15</v>
+        <v>3.3541875e-14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90675</v>
       </c>
       <c r="B517" t="n">
-        <v>8.91836604e-14</v>
+        <v>2.60969004e-12</v>
       </c>
       <c r="C517" t="n">
-        <v>3.5815914e-15</v>
+        <v>3.56222322e-14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90706</v>
       </c>
       <c r="B518" t="n">
-        <v>9.322662779999999e-14</v>
+        <v>1.59033744e-12</v>
       </c>
       <c r="C518" t="n">
-        <v>3.72767778e-15</v>
+        <v>3.95492148e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90739</v>
       </c>
       <c r="B519" t="n">
-        <v>1.50414984e-13</v>
+        <v>6.4767258e-13</v>
       </c>
       <c r="C519" t="n">
-        <v>5.85076032e-15</v>
+        <v>1.67075784e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90788</v>
       </c>
       <c r="B520" t="n">
-        <v>3.87658368e-13</v>
+        <v>4.06898388e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>9.23001912e-15</v>
+        <v>8.19136242e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.9085</v>
       </c>
       <c r="B521" t="n">
-        <v>1.494116514e-12</v>
+        <v>3.17739078e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>2.24678898e-14</v>
+        <v>9.348150599999999e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90904</v>
       </c>
       <c r="B522" t="n">
-        <v>1.588870008e-12</v>
+        <v>2.3529375e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>1.98021618e-14</v>
+        <v>5.98750704e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.90949</v>
       </c>
       <c r="B523" t="n">
-        <v>1.33829478e-12</v>
+        <v>1.84816332e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>2.4983991e-14</v>
+        <v>5.44564656e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91001</v>
       </c>
       <c r="B524" t="n">
-        <v>9.03798738e-13</v>
+        <v>1.64696814e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>1.79598618e-14</v>
+        <v>4.88869524e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91027</v>
       </c>
       <c r="B525" t="n">
-        <v>5.43619476e-13</v>
+        <v>1.322455806e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>1.273585194e-14</v>
+        <v>4.56163092e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.9115</v>
       </c>
       <c r="B526" t="n">
-        <v>2.38632318e-13</v>
+        <v>1.068010146e-13</v>
       </c>
       <c r="C526" t="n">
-        <v>6.5722851e-15</v>
+        <v>3.83249664e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91247</v>
       </c>
       <c r="B527" t="n">
-        <v>2.00008098e-13</v>
+        <v>8.487059580000001e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>5.15903274e-15</v>
+        <v>4.06734984e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91341</v>
       </c>
       <c r="B528" t="n">
-        <v>1.24186239e-13</v>
+        <v>8.91836604e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>2.7573624e-15</v>
+        <v>3.5815914e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91393</v>
       </c>
       <c r="B529" t="n">
-        <v>9.343632960000001e-14</v>
+        <v>9.322662779999999e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>3.7455561e-15</v>
+        <v>3.72767778e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91445</v>
       </c>
       <c r="B530" t="n">
-        <v>7.8811191e-14</v>
+        <v>1.50414984e-13</v>
       </c>
       <c r="C530" t="n">
-        <v>2.36617002e-15</v>
+        <v>5.85076032e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91504</v>
       </c>
       <c r="B531" t="n">
-        <v>6.564515399999999e-14</v>
+        <v>3.87658368e-13</v>
       </c>
       <c r="C531" t="n">
-        <v>2.2500891e-15</v>
+        <v>9.23001912e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91537</v>
       </c>
       <c r="B532" t="n">
-        <v>5.967578159999999e-14</v>
+        <v>1.494116514e-12</v>
       </c>
       <c r="C532" t="n">
-        <v>1.84439862e-15</v>
+        <v>2.24678898e-14</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91549</v>
       </c>
       <c r="B533" t="n">
-        <v>5.76077598e-14</v>
+        <v>1.588870008e-12</v>
       </c>
       <c r="C533" t="n">
-        <v>2.41600824e-15</v>
+        <v>1.98021618e-14</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91566</v>
       </c>
       <c r="B534" t="n">
-        <v>5.08569318e-14</v>
+        <v>1.33829478e-12</v>
       </c>
       <c r="C534" t="n">
-        <v>2.2414383e-15</v>
+        <v>2.4983991e-14</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91585</v>
       </c>
       <c r="B535" t="n">
-        <v>5.2002522e-14</v>
+        <v>9.03798738e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>2.37373146e-15</v>
+        <v>1.79598618e-14</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91604</v>
       </c>
       <c r="B536" t="n">
-        <v>4.502020499999999e-14</v>
+        <v>5.43619476e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>1.8618444e-15</v>
+        <v>1.273585194e-14</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91648</v>
       </c>
       <c r="B537" t="n">
-        <v>4.59594576e-14</v>
+        <v>2.38632318e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>2.40910362e-15</v>
+        <v>6.5722851e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91693</v>
       </c>
       <c r="B538" t="n">
-        <v>4.73346144e-14</v>
+        <v>2.00008098e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>2.1967425e-15</v>
+        <v>5.15903274e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91745</v>
       </c>
       <c r="B539" t="n">
-        <v>4.28520582e-14</v>
+        <v>1.24186239e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>2.93861268e-15</v>
+        <v>2.7573624e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91793</v>
       </c>
       <c r="B540" t="n">
-        <v>4.47368112e-14</v>
+        <v>9.343632960000001e-14</v>
       </c>
       <c r="C540" t="n">
-        <v>2.3963517e-15</v>
+        <v>3.7455561e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.9184</v>
       </c>
       <c r="B541" t="n">
-        <v>4.115970539999999e-14</v>
+        <v>7.8811191e-14</v>
       </c>
       <c r="C541" t="n">
-        <v>2.22178176e-15</v>
+        <v>2.36617002e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91892</v>
       </c>
       <c r="B542" t="n">
-        <v>4.05051282e-14</v>
+        <v>6.564515399999999e-14</v>
       </c>
       <c r="C542" t="n">
-        <v>2.30157738e-15</v>
+        <v>2.2500891e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91946</v>
       </c>
       <c r="B543" t="n">
-        <v>6.20650044e-14</v>
+        <v>5.967578159999999e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>2.84303736e-15</v>
+        <v>1.84439862e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.91991</v>
       </c>
       <c r="B544" t="n">
-        <v>1.39792923e-13</v>
+        <v>5.76077598e-14</v>
       </c>
       <c r="C544" t="n">
-        <v>3.64112172e-15</v>
+        <v>2.41600824e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92043</v>
       </c>
       <c r="B545" t="n">
-        <v>1.363720122e-13</v>
+        <v>5.08569318e-14</v>
       </c>
       <c r="C545" t="n">
-        <v>3.65566788e-15</v>
+        <v>2.2414383e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92084</v>
       </c>
       <c r="B546" t="n">
-        <v>1.033043292e-13</v>
+        <v>5.2002522e-14</v>
       </c>
       <c r="C546" t="n">
-        <v>3.09881268e-15</v>
+        <v>2.37373146e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92143</v>
       </c>
       <c r="B547" t="n">
-        <v>1.061834436e-13</v>
+        <v>4.502020499999999e-14</v>
       </c>
       <c r="C547" t="n">
-        <v>3.46259484e-15</v>
+        <v>1.8618444e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.9219</v>
       </c>
       <c r="B548" t="n">
-        <v>1.576321542e-13</v>
+        <v>4.59594576e-14</v>
       </c>
       <c r="C548" t="n">
-        <v>4.22412156e-15</v>
+        <v>2.40910362e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92247</v>
       </c>
       <c r="B549" t="n">
-        <v>2.59975764e-13</v>
+        <v>4.73346144e-14</v>
       </c>
       <c r="C549" t="n">
-        <v>9.181446480000002e-15</v>
+        <v>2.1967425e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92297</v>
       </c>
       <c r="B550" t="n">
-        <v>2.9379879e-13</v>
+        <v>4.28520582e-14</v>
       </c>
       <c r="C550" t="n">
-        <v>7.88174388e-15</v>
+        <v>2.93861268e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92346</v>
       </c>
       <c r="B551" t="n">
-        <v>4.39189902e-13</v>
+        <v>4.47368112e-14</v>
       </c>
       <c r="C551" t="n">
-        <v>9.08516628e-15</v>
+        <v>2.3963517e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92583</v>
       </c>
       <c r="B552" t="n">
-        <v>6.45828678e-13</v>
+        <v>4.115970539999999e-14</v>
       </c>
       <c r="C552" t="n">
-        <v>1.258877232e-14</v>
+        <v>2.22178176e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.92979</v>
       </c>
       <c r="B553" t="n">
-        <v>9.006924600000001e-13</v>
+        <v>4.05051282e-14</v>
       </c>
       <c r="C553" t="n">
-        <v>1.137184506e-14</v>
+        <v>2.30157738e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.93966</v>
       </c>
       <c r="B554" t="n">
-        <v>1.088385984e-12</v>
+        <v>6.20650044e-14</v>
       </c>
       <c r="C554" t="n">
-        <v>1.76663754e-14</v>
+        <v>2.84303736e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.95006</v>
       </c>
       <c r="B555" t="n">
-        <v>1.204801722e-12</v>
+        <v>1.39792923e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>1.80434862e-14</v>
+        <v>3.64112172e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.9597</v>
       </c>
       <c r="B556" t="n">
-        <v>1.283230836e-12</v>
+        <v>1.363720122e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>1.8771435e-14</v>
+        <v>3.65566788e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.96984</v>
       </c>
       <c r="B557" t="n">
-        <v>1.351288602e-12</v>
+        <v>1.033043292e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.70470422e-14</v>
+        <v>3.09881268e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97074</v>
       </c>
       <c r="B558" t="n">
-        <v>1.456296498e-12</v>
+        <v>1.212539382e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>1.98066474e-14</v>
+        <v>8.85111408e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.97979</v>
       </c>
       <c r="B559" t="n">
-        <v>1.464375384e-12</v>
+        <v>1.061834436e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.73943558e-14</v>
+        <v>3.46259484e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98023</v>
       </c>
       <c r="B560" t="n">
-        <v>1.507635792e-12</v>
+        <v>1.150623684e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>1.9242423e-14</v>
+        <v>7.16627466e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.98967</v>
       </c>
       <c r="B561" t="n">
-        <v>1.440709038e-12</v>
+        <v>1.576321542e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.87432398e-14</v>
+        <v>4.22412156e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99092</v>
       </c>
       <c r="B562" t="n">
-        <v>1.434667896e-12</v>
+        <v>1.82373282e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.84600062e-14</v>
+        <v>9.03028176e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99494</v>
       </c>
       <c r="B563" t="n">
-        <v>1.33912782e-12</v>
+        <v>2.308930559999999e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.72562634e-14</v>
+        <v>1.050916806e-14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99885</v>
       </c>
       <c r="B564" t="n">
-        <v>1.114529022e-12</v>
+        <v>2.59975764e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>1.8597618e-14</v>
+        <v>9.181446480000002e-15</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.9989</v>
       </c>
       <c r="B565" t="n">
-        <v>9.409170780000002e-13</v>
+        <v>3.04381602e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>1.344042756e-14</v>
+        <v>1.365314112e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99991</v>
       </c>
       <c r="B566" t="n">
-        <v>8.05511232e-13</v>
+        <v>3.2298723e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>1.257981714e-14</v>
+        <v>1.29444804e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.0165</v>
+        <v>2.99993</v>
       </c>
       <c r="B567" t="n">
-        <v>7.2998334e-13</v>
+        <v>2.9379879e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>1.252070334e-14</v>
+        <v>7.88174388e-15</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00139</v>
       </c>
       <c r="B568" t="n">
-        <v>6.300569880000002e-13</v>
+        <v>3.7244898e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>1.026092214e-14</v>
+        <v>8.892285480000001e-15</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00252</v>
       </c>
       <c r="B569" t="n">
-        <v>5.64004926e-13</v>
+        <v>4.07750652e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>8.993884320000001e-15</v>
+        <v>1.097908272e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00336</v>
       </c>
       <c r="B570" t="n">
-        <v>5.094680399999999e-13</v>
+        <v>4.546283760000001e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>9.18500292e-15</v>
+        <v>1.444196592e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00403</v>
       </c>
       <c r="B571" t="n">
-        <v>4.74618132e-13</v>
+        <v>4.39189902e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>1.180068444e-14</v>
+        <v>9.08516628e-15</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00434</v>
       </c>
       <c r="B572" t="n">
-        <v>4.53872232e-13</v>
+        <v>4.36758066e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>1.163559834e-14</v>
+        <v>1.54960659e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.0055</v>
       </c>
       <c r="B573" t="n">
-        <v>3.71734488e-13</v>
+        <v>5.19698412e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>1.244935026e-14</v>
+        <v>9.397812599999999e-15</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00638</v>
       </c>
       <c r="B574" t="n">
-        <v>3.1021128e-13</v>
+        <v>5.760583740000001e-13</v>
       </c>
       <c r="C574" t="n">
-        <v>1.104904206e-14</v>
+        <v>1.03900914e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00754</v>
       </c>
       <c r="B575" t="n">
-        <v>2.6819082e-13</v>
+        <v>6.76229832e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>9.75670866e-15</v>
+        <v>1.071382356e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00807</v>
       </c>
       <c r="B576" t="n">
-        <v>2.57813064e-13</v>
+        <v>6.45828678e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>8.809878600000001e-15</v>
+        <v>1.258877232e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00843</v>
       </c>
       <c r="B577" t="n">
-        <v>2.52628992e-13</v>
+        <v>7.43866272e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>7.273624680000001e-15</v>
+        <v>1.197360432e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.033</v>
+        <v>3.00955</v>
       </c>
       <c r="B578" t="n">
-        <v>2.74098996e-13</v>
+        <v>9.096396300000002e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>1.057473792e-14</v>
+        <v>1.42216749e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01001</v>
       </c>
       <c r="B579" t="n">
-        <v>3.32488692e-13</v>
+        <v>9.006924600000001e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>1.0130247e-14</v>
+        <v>1.137184506e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01047</v>
       </c>
       <c r="B580" t="n">
-        <v>4.43943036e-13</v>
+        <v>1.078232508e-12</v>
       </c>
       <c r="C580" t="n">
-        <v>1.000442592e-14</v>
+        <v>1.333578492e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01128</v>
       </c>
       <c r="B581" t="n">
-        <v>6.1770717e-13</v>
+        <v>1.088385984e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>9.76069764e-15</v>
+        <v>1.76663754e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01174</v>
       </c>
       <c r="B582" t="n">
-        <v>8.91011574e-13</v>
+        <v>1.204801722e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>1.477290708e-14</v>
+        <v>1.80434862e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01205</v>
       </c>
       <c r="B583" t="n">
-        <v>1.65203046e-12</v>
+        <v>1.283230836e-12</v>
       </c>
       <c r="C583" t="n">
-        <v>2.27097918e-14</v>
+        <v>1.8771435e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01229</v>
       </c>
       <c r="B584" t="n">
-        <v>2.2416786e-12</v>
+        <v>1.351288602e-12</v>
       </c>
       <c r="C584" t="n">
-        <v>2.67857604e-14</v>
+        <v>1.70470422e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01249</v>
       </c>
       <c r="B585" t="n">
-        <v>9.40712022e-13</v>
+        <v>1.456296498e-12</v>
       </c>
       <c r="C585" t="n">
-        <v>1.71319482e-14</v>
+        <v>1.98066474e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01268</v>
       </c>
       <c r="B586" t="n">
-        <v>4.46376474e-13</v>
+        <v>1.464375384e-12</v>
       </c>
       <c r="C586" t="n">
-        <v>1.19652579e-14</v>
+        <v>1.73943558e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01299</v>
       </c>
       <c r="B587" t="n">
-        <v>3.80359656e-13</v>
+        <v>1.507635792e-12</v>
       </c>
       <c r="C587" t="n">
-        <v>1.245694374e-14</v>
+        <v>1.9242423e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01352</v>
       </c>
       <c r="B588" t="n">
-        <v>3.7484397e-13</v>
+        <v>1.440709038e-12</v>
       </c>
       <c r="C588" t="n">
-        <v>1.171424052e-14</v>
+        <v>1.87432398e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01388</v>
       </c>
       <c r="B589" t="n">
-        <v>3.6742671e-13</v>
+        <v>1.434667896e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>9.20978586e-15</v>
+        <v>1.84600062e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01436</v>
       </c>
       <c r="B590" t="n">
-        <v>3.80104938e-13</v>
+        <v>1.33912782e-12</v>
       </c>
       <c r="C590" t="n">
-        <v>1.049849874e-14</v>
+        <v>1.72562634e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01441</v>
       </c>
       <c r="B591" t="n">
-        <v>3.25113084e-13</v>
+        <v>1.01824722e-12</v>
       </c>
       <c r="C591" t="n">
-        <v>1.082317608e-14</v>
+        <v>1.7892738e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01501</v>
       </c>
       <c r="B592" t="n">
-        <v>2.6638056e-13</v>
+        <v>1.114529022e-12</v>
       </c>
       <c r="C592" t="n">
-        <v>9.916203780000001e-15</v>
+        <v>1.8597618e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01551</v>
       </c>
       <c r="B593" t="n">
-        <v>2.26617318e-13</v>
+        <v>9.409170780000002e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>9.131544180000001e-15</v>
+        <v>1.344042756e-14</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01607</v>
       </c>
       <c r="B594" t="n">
-        <v>2.14496586e-13</v>
+        <v>8.05511232e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>9.163872540000001e-15</v>
+        <v>1.257981714e-14</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.0165</v>
       </c>
       <c r="B595" t="n">
-        <v>2.60807202e-13</v>
+        <v>7.2998334e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>9.97022322e-15</v>
+        <v>1.252070334e-14</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01703</v>
       </c>
       <c r="B596" t="n">
-        <v>2.51805564e-13</v>
+        <v>6.300569880000002e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>1.091096568e-14</v>
+        <v>1.026092214e-14</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01753</v>
       </c>
       <c r="B597" t="n">
-        <v>2.7569619e-13</v>
+        <v>5.64004926e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>1.114942338e-14</v>
+        <v>8.993884320000001e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01809</v>
       </c>
       <c r="B598" t="n">
-        <v>2.6907192e-13</v>
+        <v>5.094680399999999e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>1.012260546e-14</v>
+        <v>9.18500292e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01852</v>
       </c>
       <c r="B599" t="n">
-        <v>2.733556680000001e-13</v>
+        <v>4.22955234e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>1.215568764e-14</v>
+        <v>1.221286302e-14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01857</v>
       </c>
       <c r="B600" t="n">
-        <v>2.85058278e-13</v>
+        <v>4.74618132e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>1.15793361e-14</v>
+        <v>1.180068444e-14</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.062</v>
+        <v>3.01898</v>
       </c>
       <c r="B601" t="n">
-        <v>2.95556184e-13</v>
+        <v>4.53872232e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>1.183900428e-14</v>
+        <v>1.163559834e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02004</v>
       </c>
       <c r="B602" t="n">
-        <v>2.92863222e-13</v>
+        <v>3.71734488e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>1.162661112e-14</v>
+        <v>1.244935026e-14</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02218</v>
       </c>
       <c r="B603" t="n">
-        <v>2.78999514e-13</v>
+        <v>3.1021128e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>1.0619658e-14</v>
+        <v>1.104904206e-14</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02247</v>
       </c>
       <c r="B604" t="n">
-        <v>3.05182602e-13</v>
+        <v>2.81378484e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.11832416e-14</v>
+        <v>7.671785760000001e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02586</v>
       </c>
       <c r="B605" t="n">
-        <v>3.0968262e-13</v>
+        <v>2.6819082e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>1.226462364e-14</v>
+        <v>9.75670866e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02634</v>
       </c>
       <c r="B606" t="n">
-        <v>3.23990082e-13</v>
+        <v>2.60256114e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>1.223386524e-14</v>
+        <v>8.86333734e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.02991</v>
       </c>
       <c r="B607" t="n">
-        <v>3.26320992e-13</v>
+        <v>2.57813064e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>7.2739611e-15</v>
+        <v>8.809878600000001e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03034</v>
       </c>
       <c r="B608" t="n">
-        <v>3.1664331e-13</v>
+        <v>2.63517786e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>6.753839759999999e-15</v>
+        <v>8.0517321e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03203</v>
       </c>
       <c r="B609" t="n">
-        <v>3.24848754e-13</v>
+        <v>2.52628992e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>7.25500944e-15</v>
+        <v>7.273624680000001e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03244</v>
       </c>
       <c r="B610" t="n">
-        <v>3.21885054e-13</v>
+        <v>3.16801908e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>7.47696654e-15</v>
+        <v>9.01927602e-15</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.033</v>
       </c>
       <c r="B611" t="n">
-        <v>3.26048652e-13</v>
+        <v>2.74098996e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>8.10530298e-15</v>
+        <v>1.057473792e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0335</v>
       </c>
       <c r="B612" t="n">
-        <v>3.1033944e-13</v>
+        <v>5.469292080000001e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>7.09980768e-15</v>
+        <v>1.13540949e-14</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.0336</v>
       </c>
       <c r="B613" t="n">
-        <v>3.22673238e-13</v>
+        <v>3.32488692e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>7.04208762e-15</v>
+        <v>1.0130247e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03367</v>
       </c>
       <c r="B614" t="n">
-        <v>2.862597780000001e-13</v>
+        <v>7.52917572e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>7.011905940000001e-15</v>
+        <v>1.286378766e-14</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03399</v>
       </c>
       <c r="B615" t="n">
-        <v>2.8151946e-13</v>
+        <v>4.43943036e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>7.171561260000002e-15</v>
+        <v>1.000442592e-14</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03401</v>
       </c>
       <c r="B616" t="n">
-        <v>2.70162882e-13</v>
+        <v>2.20049118e-12</v>
       </c>
       <c r="C616" t="n">
-        <v>7.01286714e-15</v>
+        <v>2.1989052e-14</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03423</v>
       </c>
       <c r="B617" t="n">
-        <v>2.756337119999999e-13</v>
+        <v>1.193672628e-12</v>
       </c>
       <c r="C617" t="n">
-        <v>6.645864960000002e-15</v>
+        <v>1.302509304e-14</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03432</v>
       </c>
       <c r="B618" t="n">
-        <v>2.77091532e-13</v>
+        <v>6.1770717e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>8.215248239999999e-15</v>
+        <v>9.76069764e-15</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03444</v>
       </c>
       <c r="B619" t="n">
-        <v>2.47979988e-13</v>
+        <v>1.85985792e-12</v>
       </c>
       <c r="C619" t="n">
-        <v>6.09804504e-15</v>
+        <v>1.355106168e-14</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03452</v>
       </c>
       <c r="B620" t="n">
-        <v>2.34494352e-13</v>
+        <v>8.91011574e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>6.93755712e-15</v>
+        <v>1.477290708e-14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03483</v>
       </c>
       <c r="B621" t="n">
-        <v>2.28547728e-13</v>
+        <v>1.65203046e-12</v>
       </c>
       <c r="C621" t="n">
-        <v>7.057643039999999e-15</v>
+        <v>2.27097918e-14</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03488</v>
       </c>
       <c r="B622" t="n">
-        <v>2.43989406e-13</v>
+        <v>1.131622362e-12</v>
       </c>
       <c r="C622" t="n">
-        <v>7.0615359e-15</v>
+        <v>1.37597382e-14</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03505</v>
       </c>
       <c r="B623" t="n">
-        <v>2.3981139e-13</v>
+        <v>2.2416786e-12</v>
       </c>
       <c r="C623" t="n">
-        <v>7.636173299999999e-15</v>
+        <v>2.67857604e-14</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03594</v>
       </c>
       <c r="B624" t="n">
-        <v>2.89484604e-13</v>
+        <v>9.40712022e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>7.76068074e-15</v>
+        <v>1.71319482e-14</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03698</v>
       </c>
       <c r="B625" t="n">
-        <v>3.6195588e-13</v>
+        <v>4.46376474e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>7.31487618e-15</v>
+        <v>1.19652579e-14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03799</v>
       </c>
       <c r="B626" t="n">
-        <v>6.90647832e-13</v>
+        <v>3.80359656e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>1.094395086e-14</v>
+        <v>1.245694374e-14</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03879</v>
       </c>
       <c r="B627" t="n">
-        <v>9.981068760000001e-13</v>
+        <v>3.74345748e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>1.086183234e-14</v>
+        <v>8.327083860000001e-15</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.03898</v>
       </c>
       <c r="B628" t="n">
-        <v>1.73358828e-12</v>
+        <v>3.7484397e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>1.64943522e-14</v>
+        <v>1.171424052e-14</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04002</v>
       </c>
       <c r="B629" t="n">
-        <v>2.85503634e-12</v>
+        <v>3.6742671e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>2.23445358e-14</v>
+        <v>9.20978586e-15</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04202</v>
       </c>
       <c r="B630" t="n">
-        <v>4.06239966e-12</v>
+        <v>3.80104938e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>2.33304066e-14</v>
+        <v>1.049849874e-14</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04296</v>
       </c>
       <c r="B631" t="n">
-        <v>4.152736439999999e-12</v>
+        <v>3.74672556e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>2.25574416e-14</v>
+        <v>8.964792000000001e-15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04591</v>
       </c>
       <c r="B632" t="n">
-        <v>3.32728992e-12</v>
+        <v>3.25113084e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>2.415015e-14</v>
+        <v>1.082317608e-14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04695</v>
       </c>
       <c r="B633" t="n">
-        <v>2.65433778e-12</v>
+        <v>3.03351516e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>2.00881188e-14</v>
+        <v>8.680388939999998e-15</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.04891</v>
       </c>
       <c r="B634" t="n">
-        <v>1.7857494e-12</v>
+        <v>2.76375438e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>1.80462096e-14</v>
+        <v>8.82604278e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05</v>
       </c>
       <c r="B635" t="n">
-        <v>1.359958626e-12</v>
+        <v>2.6638056e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>1.549544112e-14</v>
+        <v>9.916203780000001e-15</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.0529</v>
       </c>
       <c r="B636" t="n">
-        <v>8.29898478e-13</v>
+        <v>2.2647474e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>1.23583086e-14</v>
+        <v>8.293073400000001e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05401</v>
       </c>
       <c r="B637" t="n">
-        <v>6.711514919999999e-13</v>
+        <v>2.26617318e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>1.222978014e-14</v>
+        <v>9.131544180000001e-15</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05694</v>
       </c>
       <c r="B638" t="n">
-        <v>5.068311480000001e-13</v>
+        <v>2.4165369e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>1.023625134e-14</v>
+        <v>9.00165402e-15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05801</v>
       </c>
       <c r="B639" t="n">
-        <v>4.37080068e-13</v>
+        <v>2.14496586e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>1.015100892e-14</v>
+        <v>9.163872540000001e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.05997</v>
       </c>
       <c r="B640" t="n">
-        <v>3.87200196e-13</v>
+        <v>2.60807202e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>1.009256796e-14</v>
+        <v>9.97022322e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06048</v>
       </c>
       <c r="B641" t="n">
-        <v>3.63843036e-13</v>
+        <v>2.51805564e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>7.88557266e-15</v>
+        <v>1.091096568e-14</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06094</v>
       </c>
       <c r="B642" t="n">
-        <v>3.14611974e-13</v>
+        <v>2.90452212e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>1.1332548e-14</v>
+        <v>7.807507199999999e-15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06096</v>
       </c>
       <c r="B643" t="n">
-        <v>3.13242264e-13</v>
+        <v>2.7569619e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>8.87693832e-15</v>
+        <v>1.114942338e-14</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.0613</v>
       </c>
       <c r="B644" t="n">
-        <v>2.89218672e-13</v>
+        <v>2.6907192e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>8.545596660000001e-15</v>
+        <v>1.012260546e-14</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06147</v>
       </c>
       <c r="B645" t="n">
-        <v>3.1224582e-13</v>
+        <v>2.733556680000001e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>8.89641864e-15</v>
+        <v>1.215568764e-14</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06178</v>
       </c>
       <c r="B646" t="n">
-        <v>3.10063896e-13</v>
+        <v>2.85058278e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>9.298376460000001e-15</v>
+        <v>1.15793361e-14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.062</v>
       </c>
       <c r="B647" t="n">
-        <v>3.06417744e-13</v>
+        <v>2.95556184e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>9.9774963e-15</v>
+        <v>1.183900428e-14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06227</v>
       </c>
       <c r="B648" t="n">
-        <v>2.99450646e-13</v>
+        <v>2.92863222e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>8.19059346e-15</v>
+        <v>1.162661112e-14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06258</v>
       </c>
       <c r="B649" t="n">
-        <v>3.08763072e-13</v>
+        <v>2.78999514e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>8.039492819999999e-15</v>
+        <v>1.0619658e-14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.0628</v>
       </c>
       <c r="B650" t="n">
-        <v>3.08936088e-13</v>
+        <v>3.05182602e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>8.150767740000001e-15</v>
+        <v>1.11832416e-14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06292</v>
       </c>
       <c r="B651" t="n">
-        <v>3.0528513e-13</v>
+        <v>3.37257846e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>8.18016444e-15</v>
+        <v>8.330191739999999e-15</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06312</v>
       </c>
       <c r="B652" t="n">
-        <v>3.27351078e-13</v>
+        <v>3.0968262e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>9.162222480000001e-15</v>
+        <v>1.226462364e-14</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06324</v>
       </c>
       <c r="B653" t="n">
-        <v>3.34411092e-13</v>
+        <v>3.23990082e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>8.649117899999999e-15</v>
+        <v>1.223386524e-14</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06353</v>
       </c>
       <c r="B654" t="n">
-        <v>3.27788424e-13</v>
+        <v>3.26320992e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>8.80260552e-15</v>
+        <v>7.2739611e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06375</v>
       </c>
       <c r="B655" t="n">
-        <v>3.07348506e-13</v>
+        <v>3.1664331e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>9.1246716e-15</v>
+        <v>6.753839759999999e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06389</v>
       </c>
       <c r="B656" t="n">
-        <v>3.23306028e-13</v>
+        <v>3.06475416e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>1.185114744e-14</v>
+        <v>9.14576994e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06404</v>
       </c>
       <c r="B657" t="n">
-        <v>3.50788338e-13</v>
+        <v>3.24848754e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>8.949140460000001e-15</v>
+        <v>7.25500944e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06418</v>
       </c>
       <c r="B658" t="n">
-        <v>4.00351014e-13</v>
+        <v>3.21885054e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>1.158068178e-14</v>
+        <v>7.47696654e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06445</v>
       </c>
       <c r="B659" t="n">
-        <v>4.13657226e-13</v>
+        <v>3.26048652e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>9.577236600000001e-15</v>
+        <v>8.10530298e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06455</v>
       </c>
       <c r="B660" t="n">
-        <v>4.73873202e-13</v>
+        <v>2.98486242e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>1.099960434e-14</v>
+        <v>1.002496356e-14</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06481</v>
       </c>
       <c r="B661" t="n">
-        <v>6.530136479999999e-13</v>
+        <v>3.1033944e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>1.206605574e-14</v>
+        <v>7.09980768e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06486</v>
       </c>
       <c r="B662" t="n">
-        <v>7.48132398e-13</v>
+        <v>2.8052622e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>1.492820496e-14</v>
+        <v>1.009763028e-14</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06498</v>
       </c>
       <c r="B663" t="n">
-        <v>1.002936906e-12</v>
+        <v>3.22673238e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>1.364854338e-14</v>
+        <v>7.04208762e-15</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06532</v>
       </c>
       <c r="B664" t="n">
-        <v>1.490555268e-12</v>
+        <v>2.862597780000001e-13</v>
       </c>
       <c r="C664" t="n">
-        <v>1.80901044e-14</v>
+        <v>7.011905940000001e-15</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06547</v>
       </c>
       <c r="B665" t="n">
-        <v>1.77147558e-12</v>
+        <v>2.8151946e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>1.98787374e-14</v>
+        <v>7.171561260000002e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06583</v>
       </c>
       <c r="B666" t="n">
-        <v>1.89197802e-12</v>
+        <v>2.70162882e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>2.02375854e-14</v>
+        <v>7.01286714e-15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06603</v>
       </c>
       <c r="B667" t="n">
-        <v>1.76008536e-12</v>
+        <v>2.756337119999999e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>2.07564732e-14</v>
+        <v>6.645864960000002e-15</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.0662</v>
       </c>
       <c r="B668" t="n">
-        <v>1.468398006e-12</v>
+        <v>2.77091532e-13</v>
       </c>
       <c r="C668" t="n">
-        <v>1.9546002e-14</v>
+        <v>8.215248239999999e-15</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06658</v>
       </c>
       <c r="B669" t="n">
-        <v>9.52810326e-13</v>
+        <v>2.47979988e-13</v>
       </c>
       <c r="C669" t="n">
-        <v>1.404487818e-14</v>
+        <v>6.09804504e-15</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06707</v>
       </c>
       <c r="B670" t="n">
-        <v>6.59466504e-13</v>
+        <v>2.34494352e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>1.272401316e-14</v>
+        <v>6.93755712e-15</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06758</v>
       </c>
       <c r="B671" t="n">
-        <v>5.19693606e-13</v>
+        <v>2.28547728e-13</v>
       </c>
       <c r="C671" t="n">
-        <v>1.183826736e-14</v>
+        <v>7.057643039999999e-15</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06787</v>
       </c>
       <c r="B672" t="n">
-        <v>4.55014458e-13</v>
+        <v>2.43989406e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>9.37112328e-15</v>
+        <v>7.0615359e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06913</v>
       </c>
       <c r="B673" t="n">
-        <v>4.28211396e-13</v>
+        <v>2.3981139e-13</v>
       </c>
       <c r="C673" t="n">
-        <v>9.638016480000001e-15</v>
+        <v>7.636173299999999e-15</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.06998</v>
       </c>
       <c r="B674" t="n">
-        <v>4.10309046e-13</v>
+        <v>2.89484604e-13</v>
       </c>
       <c r="C674" t="n">
-        <v>9.7597845e-15</v>
+        <v>7.76068074e-15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07042</v>
       </c>
       <c r="B675" t="n">
-        <v>3.81727764e-13</v>
+        <v>4.29094098e-13</v>
       </c>
       <c r="C675" t="n">
-        <v>9.85372578e-15</v>
+        <v>1.035103464e-14</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07095</v>
       </c>
       <c r="B676" t="n">
-        <v>3.63448944e-13</v>
+        <v>3.6195588e-13</v>
       </c>
       <c r="C676" t="n">
-        <v>1.039094046e-14</v>
+        <v>7.31487618e-15</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07097</v>
       </c>
       <c r="B677" t="n">
-        <v>3.62537406e-13</v>
+        <v>5.618005739999999e-13</v>
       </c>
       <c r="C677" t="n">
-        <v>1.058947632e-14</v>
+        <v>1.186591788e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07192</v>
       </c>
       <c r="B678" t="n">
-        <v>3.57792282e-13</v>
+        <v>1.6689636e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>1.105841376e-14</v>
+        <v>3.14445366e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07204</v>
       </c>
       <c r="B679" t="n">
-        <v>3.77065944e-13</v>
+        <v>2.31533856e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>1.180867842e-14</v>
+        <v>2.96917884e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07209</v>
       </c>
       <c r="B680" t="n">
-        <v>4.23179514e-13</v>
+        <v>6.90647832e-13</v>
       </c>
       <c r="C680" t="n">
-        <v>1.166885586e-14</v>
+        <v>1.094395086e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07241</v>
       </c>
       <c r="B681" t="n">
-        <v>4.50711486e-13</v>
+        <v>3.93702714e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>1.16555913e-14</v>
+        <v>5.35715208e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07245</v>
       </c>
       <c r="B682" t="n">
-        <v>4.77953496e-13</v>
+        <v>9.981068760000001e-13</v>
       </c>
       <c r="C682" t="n">
-        <v>1.207935234e-14</v>
+        <v>1.086183234e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.0726</v>
       </c>
       <c r="B683" t="n">
-        <v>3.70291086e-13</v>
+        <v>4.34489634e-12</v>
       </c>
       <c r="C683" t="n">
-        <v>8.31856122e-15</v>
+        <v>3.27871728e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07279</v>
       </c>
       <c r="B684" t="n">
-        <v>3.42143946e-13</v>
+        <v>1.73358828e-12</v>
       </c>
       <c r="C684" t="n">
-        <v>8.735433660000001e-15</v>
+        <v>1.64943522e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07292</v>
       </c>
       <c r="B685" t="n">
-        <v>3.08846376e-13</v>
+        <v>3.67687836e-12</v>
       </c>
       <c r="C685" t="n">
-        <v>7.90588602e-15</v>
+        <v>2.9752344e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B686" t="n">
-        <v>2.5334028e-13</v>
+        <v>3.05946756e-12</v>
       </c>
       <c r="C686" t="n">
-        <v>9.283349700000001e-15</v>
+        <v>2.87212968e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07309</v>
       </c>
       <c r="B687" t="n">
-        <v>2.00344518e-13</v>
+        <v>2.85503634e-12</v>
       </c>
       <c r="C687" t="n">
-        <v>8.475348960000002e-15</v>
+        <v>2.23445358e-14</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07328</v>
       </c>
       <c r="B688" t="n">
-        <v>2.1767175e-13</v>
+        <v>4.06239966e-12</v>
       </c>
       <c r="C688" t="n">
-        <v>7.477623360000002e-15</v>
+        <v>2.33304066e-14</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.0734</v>
       </c>
       <c r="B689" t="n">
-        <v>2.10624552e-13</v>
+        <v>2.65585968e-12</v>
       </c>
       <c r="C689" t="n">
-        <v>7.956845639999998e-15</v>
+        <v>2.84343786e-14</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07362</v>
       </c>
       <c r="B690" t="n">
-        <v>2.14791354e-13</v>
+        <v>4.152736439999999e-12</v>
       </c>
       <c r="C690" t="n">
-        <v>6.324455699999999e-15</v>
+        <v>2.25574416e-14</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07374</v>
       </c>
       <c r="B691" t="n">
-        <v>2.40831864e-13</v>
+        <v>1.9336941e-12</v>
       </c>
       <c r="C691" t="n">
-        <v>8.21856438e-15</v>
+        <v>2.43422298e-14</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07384</v>
       </c>
       <c r="B692" t="n">
-        <v>3.02367888e-13</v>
+        <v>3.32728992e-12</v>
       </c>
       <c r="C692" t="n">
-        <v>1.119913344e-14</v>
+        <v>2.415015e-14</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07398</v>
       </c>
       <c r="B693" t="n">
-        <v>7.81932996e-13</v>
+        <v>1.311179328e-12</v>
       </c>
       <c r="C693" t="n">
-        <v>1.20762765e-14</v>
+        <v>1.477862622e-14</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07401</v>
       </c>
       <c r="B694" t="n">
-        <v>3.1718799e-13</v>
+        <v>2.65433778e-12</v>
       </c>
       <c r="C694" t="n">
-        <v>5.994411660000002e-15</v>
+        <v>2.00881188e-14</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.0743</v>
       </c>
       <c r="B695" t="n">
-        <v>2.6719758e-13</v>
+        <v>1.7857494e-12</v>
       </c>
       <c r="C695" t="n">
-        <v>7.54687782e-15</v>
+        <v>1.80462096e-14</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B696" t="n">
-        <v>2.50073802e-13</v>
+        <v>1.359958626e-12</v>
       </c>
       <c r="C696" t="n">
-        <v>6.62745798e-15</v>
+        <v>1.549544112e-14</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07452</v>
       </c>
       <c r="B697" t="n">
-        <v>2.42901648e-13</v>
+        <v>8.054888039999999e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>5.80990932e-15</v>
+        <v>1.461156966e-14</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07491</v>
       </c>
       <c r="B698" t="n">
-        <v>2.476964340000001e-13</v>
+        <v>6.50016306e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>5.5816884e-15</v>
+        <v>1.325179206e-14</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07505</v>
       </c>
       <c r="B699" t="n">
-        <v>2.54404008e-13</v>
+        <v>8.29898478e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>7.64443962e-15</v>
+        <v>1.23583086e-14</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07537</v>
       </c>
       <c r="B700" t="n">
-        <v>2.81937582e-13</v>
+        <v>6.711514919999999e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.865323380000002e-15</v>
+        <v>1.222978014e-14</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.0759</v>
       </c>
       <c r="B701" t="n">
-        <v>3.24334512e-13</v>
+        <v>4.39143444e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>7.7764284e-15</v>
+        <v>1.075819896e-14</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07593</v>
       </c>
       <c r="B702" t="n">
-        <v>3.64634424e-13</v>
+        <v>5.068311480000001e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>9.04835232e-15</v>
+        <v>1.023625134e-14</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07644</v>
       </c>
       <c r="B703" t="n">
-        <v>5.293440539999999e-13</v>
+        <v>4.37080068e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>1.153486458e-14</v>
+        <v>1.015100892e-14</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07697</v>
       </c>
       <c r="B704" t="n">
-        <v>6.407086860000001e-13</v>
+        <v>3.87200196e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>9.903996539999999e-15</v>
+        <v>1.009256796e-14</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07784</v>
       </c>
       <c r="B705" t="n">
-        <v>7.50923082e-13</v>
+        <v>3.39798618e-13</v>
       </c>
       <c r="C705" t="n">
-        <v>1.340326116e-14</v>
+        <v>9.83594358e-15</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.07801</v>
       </c>
       <c r="B706" t="n">
-        <v>9.24400458e-13</v>
+        <v>3.63843036e-13</v>
       </c>
       <c r="C706" t="n">
-        <v>1.266302502e-14</v>
+        <v>7.88557266e-15</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08001</v>
       </c>
       <c r="B707" t="n">
-        <v>8.964599760000002e-13</v>
+        <v>3.14611974e-13</v>
       </c>
       <c r="C707" t="n">
-        <v>1.66426974e-14</v>
+        <v>1.1332548e-14</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0819</v>
       </c>
       <c r="B708" t="n">
-        <v>3.12511752e-13</v>
+        <v>3.1371165e-13</v>
       </c>
       <c r="C708" t="n">
-        <v>6.41287008e-15</v>
+        <v>1.18662543e-14</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B709" t="n">
-        <v>4.52467278e-13</v>
+        <v>3.13242264e-13</v>
       </c>
       <c r="C709" t="n">
-        <v>1.043251236e-14</v>
+        <v>8.87693832e-15</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.0829</v>
       </c>
       <c r="B710" t="n">
-        <v>1.96935462e-13</v>
+        <v>2.89218672e-13</v>
       </c>
       <c r="C710" t="n">
-        <v>3.61989522e-15</v>
+        <v>8.545596660000001e-15</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08356</v>
       </c>
       <c r="B711" t="n">
-        <v>1.8141849e-13</v>
+        <v>3.1224582e-13</v>
       </c>
       <c r="C711" t="n">
-        <v>4.7842128e-15</v>
+        <v>8.89641864e-15</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08506</v>
       </c>
       <c r="B712" t="n">
-        <v>1.407219228e-13</v>
+        <v>3.10063896e-13</v>
       </c>
       <c r="C712" t="n">
-        <v>7.679619540000001e-15</v>
+        <v>9.298376460000001e-15</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08579</v>
       </c>
       <c r="B713" t="n">
-        <v>1.520945208e-13</v>
+        <v>2.8607715e-13</v>
       </c>
       <c r="C713" t="n">
-        <v>9.40585464e-15</v>
+        <v>8.4802671e-15</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08604</v>
       </c>
       <c r="B714" t="n">
-        <v>1.492057944e-13</v>
+        <v>3.06417744e-13</v>
       </c>
       <c r="C714" t="n">
-        <v>1.008551916e-14</v>
+        <v>9.9774963e-15</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08798</v>
       </c>
       <c r="B715" t="n">
-        <v>1.289646846e-13</v>
+        <v>2.99450646e-13</v>
       </c>
       <c r="C715" t="n">
-        <v>8.600753519999999e-15</v>
+        <v>8.19059346e-15</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08898</v>
       </c>
       <c r="B716" t="n">
-        <v>1.323160686e-13</v>
+        <v>3.08763072e-13</v>
       </c>
       <c r="C716" t="n">
-        <v>5.946431760000002e-15</v>
+        <v>8.039492819999999e-15</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.05623152e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>7.88852034e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.08936088e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>8.150767740000001e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.0528513e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>8.18016444e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.27351078e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>9.162222480000001e-15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.34411092e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>8.649117899999999e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.21130512e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>8.263532519999999e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.27788424e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>8.80260552e-15</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.07348506e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>9.1246716e-15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.23306028e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.185114744e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.32692146e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>8.772792300000001e-15</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3.50788338e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>8.949140460000001e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B728" t="n">
+        <v>3.93965442e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7.89066702e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4.2522687e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>8.19209934e-15</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4.00351014e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.158068178e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.13657226e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>9.577236600000001e-15</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B732" t="n">
+        <v>5.1058143e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.159260066e-14</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B733" t="n">
+        <v>7.55437518e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>2.23456572e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4.73873202e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.099960434e-14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B735" t="n">
+        <v>9.1893924e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.342242108e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B736" t="n">
+        <v>6.530136479999999e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.206605574e-14</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B737" t="n">
+        <v>7.48132398e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.492820496e-14</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1.002936906e-12</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.364854338e-14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.490555268e-12</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.80901044e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.77147558e-12</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.98787374e-14</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.89197802e-12</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2.02375854e-14</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1.76008536e-12</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2.07564732e-14</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1.468398006e-12</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.9546002e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B744" t="n">
+        <v>9.52810326e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.404487818e-14</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B745" t="n">
+        <v>6.59466504e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.272401316e-14</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B746" t="n">
+        <v>5.19693606e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.183826736e-14</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B747" t="n">
+        <v>3.91171554e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>9.4845609e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.55014458e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>9.37112328e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.28211396e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>9.638016480000001e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.10309046e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>9.7597845e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B751" t="n">
+        <v>3.81727764e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>9.85372578e-15</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B752" t="n">
+        <v>3.63448944e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.039094046e-14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.62537406e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1.058947632e-14</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.57792282e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1.105841376e-14</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B755" t="n">
+        <v>3.55810608e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>9.573952499999999e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.77065944e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1.180867842e-14</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B757" t="n">
+        <v>3.79094076e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>9.380462939999999e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B758" t="n">
+        <v>4.23179514e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1.166885586e-14</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B759" t="n">
+        <v>4.07151504e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>9.5524857e-15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B760" t="n">
+        <v>4.50711486e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1.16555913e-14</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.4120682e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>8.962837560000001e-15</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B762" t="n">
+        <v>4.77953496e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.207935234e-14</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B763" t="n">
+        <v>4.548382380000001e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1.092336516e-14</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B764" t="n">
+        <v>4.47787836e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1.011962574e-14</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4.33951362e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>9.72492498e-15</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B766" t="n">
+        <v>3.74489928e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1.32644799e-14</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B767" t="n">
+        <v>3.70291086e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>8.31856122e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B768" t="n">
+        <v>3.52289412e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>1.006134498e-14</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B769" t="n">
+        <v>3.42143946e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>8.735433660000001e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.868973740000001e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>9.065734019999999e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B771" t="n">
+        <v>3.08846376e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>7.90588602e-15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.84701032e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7.81758378e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.36200482e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>9.17566326e-15</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.5334028e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>9.283349700000001e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.29363146e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>9.60403806e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.00344518e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>8.475348960000002e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.18781936e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>9.06398784e-15</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.19999456e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>9.41857452e-15</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.167538040000001e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.203018696e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.14735284e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>5.96517516e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.1767175e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7.477623360000002e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.10624552e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>7.956845639999998e-15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.36913372e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>1.293890544e-14</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.14791354e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>6.324455699999999e-15</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.40831864e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>8.21856438e-15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.91757842e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1.25435799e-14</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.88574668e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.280159802e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B788" t="n">
+        <v>5.889496680000001e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.72248642e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1.11895695e-12</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2.08216746e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B790" t="n">
+        <v>3.02367888e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.119913344e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B791" t="n">
+        <v>9.116869860000003e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.9152711e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B792" t="n">
+        <v>7.81932996e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.20762765e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B793" t="n">
+        <v>3.1718799e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>5.994411660000002e-15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B794" t="n">
+        <v>3.01515624e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.29898971e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2.6719758e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>7.54687782e-15</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.43582498e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1.023114096e-14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2.50073802e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>6.62745798e-15</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2.43081072e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.19384244e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.42901648e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>5.80990932e-15</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B800" t="n">
+        <v>2.53322658e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1.194600186e-14</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B801" t="n">
+        <v>2.476964340000001e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>5.5816884e-15</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B802" t="n">
+        <v>2.66186718e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.250221626e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.54404008e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>7.64443962e-15</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B804" t="n">
+        <v>3.10118364e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.399300542e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B805" t="n">
+        <v>2.81937582e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>7.865323380000002e-15</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B806" t="n">
+        <v>2.9241306e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.244712348e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.24334512e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>7.7764284e-15</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.29441688e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.406322108e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B809" t="n">
+        <v>3.87241848e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.343051118e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B810" t="n">
+        <v>3.64634424e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>9.04835232e-15</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B811" t="n">
+        <v>4.363848e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.420214652e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B812" t="n">
+        <v>5.19235434e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.596599658e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B813" t="n">
+        <v>5.293440539999999e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.153486458e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B814" t="n">
+        <v>6.2327412e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.75702554e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B815" t="n">
+        <v>6.407086860000001e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>9.903996539999999e-15</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B816" t="n">
+        <v>7.49755224e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.69743114e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B817" t="n">
+        <v>8.481068100000001e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.83767022e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B818" t="n">
+        <v>7.50923082e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.340326116e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B819" t="n">
+        <v>8.897075460000001e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.92414618e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1.00465425e-12</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.97175762e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1.091479446e-12</v>
+      </c>
+      <c r="C821" t="n">
+        <v>2.05221006e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B822" t="n">
+        <v>9.24400458e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1.266302502e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1.09752219e-12</v>
+      </c>
+      <c r="C823" t="n">
+        <v>2.1039066e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1.061185626e-12</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2.03819256e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B825" t="n">
+        <v>8.964599760000002e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1.66426974e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1.007372844e-12</v>
+      </c>
+      <c r="C826" t="n">
+        <v>2.0286927e-14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B827" t="n">
+        <v>9.94212414e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>2.00405394e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B828" t="n">
+        <v>8.46283734e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1.62965052e-14</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B829" t="n">
+        <v>6.749482319999999e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1.74734946e-14</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B830" t="n">
+        <v>6.167924279999999e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1.62929808e-14</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B831" t="n">
+        <v>5.0516667e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1.547527194e-14</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.12511752e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>6.41287008e-15</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B833" t="n">
+        <v>4.52467278e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1.043251236e-14</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B834" t="n">
+        <v>4.16254068e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1.404476604e-14</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.5734212e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1.277566164e-14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.13498584e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1.203276618e-14</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B837" t="n">
+        <v>2.73214692e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.159229628e-14</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2.443274280000001e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1.114259886e-14</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B839" t="n">
+        <v>2.279453759999999e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1.16871507e-14</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.96935462e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.61989522e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B841" t="n">
+        <v>2.129058e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1.115070498e-14</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1.9590057e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1.035875628e-14</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.8141849e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>4.7842128e-15</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.68477534e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>8.725901760000001e-15</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1.80655938e-13</v>
+      </c>
+      <c r="C845" t="n">
+        <v>8.987412239999999e-15</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1.559665548e-13</v>
+      </c>
+      <c r="C846" t="n">
+        <v>8.7982641e-15</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.407219228e-13</v>
+      </c>
+      <c r="C847" t="n">
+        <v>7.679619540000001e-15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1.520945208e-13</v>
+      </c>
+      <c r="C848" t="n">
+        <v>9.40585464e-15</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1.482303366e-13</v>
+      </c>
+      <c r="C849" t="n">
+        <v>8.68102974e-15</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1.492057944e-13</v>
+      </c>
+      <c r="C850" t="n">
+        <v>1.008551916e-14</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1.437136578e-13</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1.042467858e-14</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1.376925408e-13</v>
+      </c>
+      <c r="C852" t="n">
+        <v>9.29555694e-15</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1.289646846e-13</v>
+      </c>
+      <c r="C853" t="n">
+        <v>8.600753519999999e-15</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1.323160686e-13</v>
+      </c>
+      <c r="C854" t="n">
+        <v>5.946431760000002e-15</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1.466339436e-13</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1.170816894e-14</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B717" t="n">
+      <c r="B856" t="n">
         <v>1.20113955e-13</v>
       </c>
-      <c r="C717" t="n">
+      <c r="C856" t="n">
         <v>8.47624608e-15</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1.30113639e-13</v>
+      </c>
+      <c r="C857" t="n">
+        <v>8.90893026e-15</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1.26550791e-13</v>
+      </c>
+      <c r="C858" t="n">
+        <v>7.61236758e-15</v>
       </c>
     </row>
   </sheetData>
